--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_180.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_180.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.0, 16.52)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(93.92, 110.76)]</t>
+          <t>[('0:00:26.160000', '0:00:36.860000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:39.580000', '0:00:48.900000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (13.42, 19.5)]</t>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5428571428571429</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:07.525011', '0:00:14.746417')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1282051282051282</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['A:7', 'D', 'D:min', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[('0:00:12.823786', '0:00:18.895804')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:03.080000', '0:00:11.700000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3055555555555556</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[('0:00:00.465952', '0:00:08.500330')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:01:58.400000', '0:02:02.360000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>schubert-winterreise_43</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.1230769230769231</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[(41.32, 48.94)]</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1777777777777778</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1762820512820513</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>[['D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(2.103232, 8.50033)]</t>
+          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[('0:00:25.240000', '0:00:35.760000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:59.437845', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6153846153846154</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(34.86, 39.7)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(31.74, 33.88)]</t>
+          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.2, 30.68)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(38.12, 52.64)]</t>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0572717806317251</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(31.16, 45.84)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(23.02, 32.58)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.394648, 21.12535)]</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.22, 5.02)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(10.88, 22.2)]</t>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(42.36, 50.36)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(8.46, 13.46)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
